--- a/Assets/Resources/Document/Excel/Stage.xlsx
+++ b/Assets/Resources/Document/Excel/Stage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,17 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,61 +388,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1001</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1002</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Document/Excel/Stage.xlsx
+++ b/Assets/Resources/Document/Excel/Stage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>FirstVillage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastVillage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -426,14 +422,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Document/Excel/Stage.xlsx
+++ b/Assets/Resources/Document/Excel/Stage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -34,7 +34,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FirstVillage</t>
+    <t>First Village</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +387,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
